--- a/Preliminare/64.8_96.8/Cp-Lambda_v3_2021_CLEAN_March2021/2.Baseline_96_1.5MW_IIA/RUN/Performances/0.Main/WTData.xlsx
+++ b/Preliminare/64.8_96.8/Cp-Lambda_v3_2021_CLEAN_March2021/2.Baseline_96_1.5MW_IIA/RUN/Performances/0.Main/WTData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ale\Corsi\PGE\2021\Lab\Cp-Lambda_v3_2021_FULL\2.Baseline_96_1.5MW_IIA\RUN\Performances\0.Main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\PGE\Preliminare\64.8_96.8\Cp-Lambda_v3_2021_CLEAN_March2021\2.Baseline_96_1.5MW_IIA\RUN\Performances\0.Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63A4183-60F3-4486-BC22-3781F4371B68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WTData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -157,9 +159,6 @@
     <t>Wind Turbine Category</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Wind Turbine Class</t>
   </si>
   <si>
@@ -190,13 +189,16 @@
     <t>WARNING: This must be consistent with B30 (Class 1 = 10 m/s, Class 2 = 8.5 m/s, Class 3 = 7.5 m/s)</t>
   </si>
   <si>
-    <t>Updated by Cp-Lambda Pre-Processor on 18-Mar-2021 16:38:01</t>
+    <t>Updated by Cp-Lambda Pre-Processor on 18-May-2021 21:18:58</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -584,22 +586,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="116.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="116.5546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -610,24 +612,24 @@
         <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="6">
-        <v>96</v>
+        <v>129.6</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
@@ -638,10 +640,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
@@ -652,18 +654,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
@@ -674,10 +676,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
@@ -688,7 +690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -699,7 +701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -713,22 +715,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1">
-        <f>IF(B30=1, 10, IF(B30=2, 8.5, 7.5))</f>
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
@@ -739,11 +740,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
@@ -754,7 +755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
@@ -765,7 +766,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
@@ -776,7 +777,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
@@ -787,25 +788,25 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="10">
-        <v>8887622.0836476237</v>
+        <v>22166443.086310927</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>33</v>
       </c>
@@ -816,10 +817,10 @@
         <v>24</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>34</v>
       </c>
@@ -830,7 +831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
@@ -841,7 +842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>39</v>
       </c>
@@ -852,10 +853,10 @@
         <v>9</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>29</v>
       </c>
@@ -866,7 +867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
@@ -877,7 +878,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>35</v>
       </c>
@@ -888,10 +889,10 @@
         <v>31</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>36</v>
       </c>
@@ -902,7 +903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>37</v>
       </c>
@@ -913,48 +914,48 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="B30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="6">
-        <v>80</v>
+        <v>96.8</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="11">
         <v>140</v>
@@ -963,12 +964,12 @@
         <v>4</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="11">
         <v>10</v>
@@ -978,9 +979,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="6">
         <v>0.05</v>
@@ -990,9 +991,9 @@
       </c>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="6">
         <v>5</v>
